--- a/articles/course_docs/Fall_2023_schedule.xlsx
+++ b/articles/course_docs/Fall_2023_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7FFD3F-5C4B-0F4C-8237-FCC26D923C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F2D933-4056-FE4A-8323-9972B069999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="500" windowWidth="21160" windowHeight="25980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Week</t>
   </si>
@@ -39,42 +39,12 @@
     <t>Learning Module</t>
   </si>
   <si>
-    <t>Reading</t>
-  </si>
-  <si>
     <t>[Getting started](https://www.crumplab.com/cognition/articles/modules/L0_Getting_Started.html)</t>
   </si>
   <si>
-    <t>[Reading Chpt 1](https://www.crumplab.com/cognition/textbook/what-is-cognition.html)</t>
-  </si>
-  <si>
     <t>[What is Cognition?](https://www.crumplab.com/cognition/articles/modules/L1_What_is_cognition.html)</t>
   </si>
   <si>
-    <t>[Reading Chpt 2](https://www.crumplab.com/cognition/textbook/mental-imagery.html)</t>
-  </si>
-  <si>
-    <t>[Reading Chpt 3](https://www.crumplab.com/cognition/textbook/eugenics-and-psychology.html) &amp; [Reading Chpt 4](https://www.crumplab.com/cognition/textbook/intelligence-testing.html)</t>
-  </si>
-  <si>
-    <t>[Reading Chpt 5](https://www.crumplab.com/cognition/textbook/associations.html)</t>
-  </si>
-  <si>
-    <t>[Reading Chpt 6](https://www.crumplab.com/cognition/textbook/behaviorism.html)</t>
-  </si>
-  <si>
-    <t>[Reading Chpt 7](https://www.crumplab.com/cognition/textbook/information-processing.html)</t>
-  </si>
-  <si>
-    <t>[Reading Chpt 8](https://www.crumplab.com/cognition/textbook/memory-i.html)</t>
-  </si>
-  <si>
-    <t>[Reading Chpt 9](https://www.crumplab.com/cognition/textbook/memory-ii.html)</t>
-  </si>
-  <si>
-    <t>(reading on Blackboard)</t>
-  </si>
-  <si>
     <t>[Mental Imagery](https://www.crumplab.com/cognition/articles/modules/L2_Mental_imagery.html)</t>
   </si>
   <si>
@@ -99,12 +69,6 @@
     <t xml:space="preserve">[Implicit Cognition](https://www.crumplab.com/cognition/articles/modules/L9_Implicit_Cognition.html) </t>
   </si>
   <si>
-    <t>ASSESSMENT 1 (Set your goals for this course)</t>
-  </si>
-  <si>
-    <t>In Class assessment</t>
-  </si>
-  <si>
     <t>Assessment 2 (Goal assessment and refinement)</t>
   </si>
   <si>
@@ -171,22 +135,16 @@
     <t>11/27-12/1</t>
   </si>
   <si>
-    <t>Advanced Topics and Review Week</t>
-  </si>
-  <si>
     <t>12/4-12/8</t>
   </si>
   <si>
     <t>12/13-12/20</t>
   </si>
   <si>
-    <t>Final Exam Period</t>
-  </si>
-  <si>
     <t>Final Assessment</t>
   </si>
   <si>
-    <t>TBA</t>
+    <t>Assesment 1 (Set your goals for this course)</t>
   </si>
 </sst>
 </file>
@@ -511,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,11 +480,10 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,269 +493,203 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/articles/course_docs/Fall_2023_schedule.xlsx
+++ b/articles/course_docs/Fall_2023_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10823"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F2D933-4056-FE4A-8323-9972B069999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F372D-8823-384A-8885-1DE0CEF13DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="500" windowWidth="21160" windowHeight="25980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
     <t>Final Assessment</t>
   </si>
   <si>
-    <t>Assesment 1 (Set your goals for this course)</t>
+    <t>Assessment 1 (Set your goals for this course)</t>
   </si>
 </sst>
 </file>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
